--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>2040.063780518416</v>
+        <v>0.01434067320444445</v>
       </c>
       <c r="R2">
-        <v>18360.57402466575</v>
+        <v>0.12906605884</v>
       </c>
       <c r="S2">
-        <v>0.4536212775581963</v>
+        <v>0.000177215391068647</v>
       </c>
       <c r="T2">
-        <v>0.4536212775581963</v>
+        <v>0.000177215391068647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>2010.721699748203</v>
+        <v>0.3513816793622222</v>
       </c>
       <c r="R3">
-        <v>18096.49529773383</v>
+        <v>3.16243511426</v>
       </c>
       <c r="S3">
-        <v>0.4470968775407529</v>
+        <v>0.004342211891645047</v>
       </c>
       <c r="T3">
-        <v>0.4470968775407528</v>
+        <v>0.004342211891645047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>300.1218459309745</v>
+        <v>0.05244749596611112</v>
       </c>
       <c r="R4">
-        <v>2701.096613378771</v>
+        <v>0.472027463695</v>
       </c>
       <c r="S4">
-        <v>0.06673401904117762</v>
+        <v>0.0006481218402860702</v>
       </c>
       <c r="T4">
-        <v>0.06673401904117762</v>
+        <v>0.0006481218402860701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>55.65467551309779</v>
+        <v>2.23872268256889</v>
       </c>
       <c r="R5">
-        <v>500.89207961788</v>
+        <v>20.14850414312</v>
       </c>
       <c r="S5">
-        <v>0.01237517436926545</v>
+        <v>0.0276650970306429</v>
       </c>
       <c r="T5">
-        <v>0.01237517436926544</v>
+        <v>0.0276650970306429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>54.85419858696445</v>
@@ -818,10 +818,10 @@
         <v>493.6877872826801</v>
       </c>
       <c r="S6">
-        <v>0.01219718318616813</v>
+        <v>0.6778627555178796</v>
       </c>
       <c r="T6">
-        <v>0.01219718318616813</v>
+        <v>0.6778627555178796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>8.187579285112221</v>
+        <v>8.187579285112223</v>
       </c>
       <c r="R7">
         <v>73.68821356601001</v>
       </c>
       <c r="S7">
-        <v>0.001820560813288799</v>
+        <v>0.1011783090118137</v>
       </c>
       <c r="T7">
-        <v>0.001820560813288798</v>
+        <v>0.1011783090118137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>12.97883676399689</v>
+        <v>0.5220768244364444</v>
       </c>
       <c r="R8">
-        <v>116.809530875972</v>
+        <v>4.698691419928</v>
       </c>
       <c r="S8">
-        <v>0.00288592767065716</v>
+        <v>0.006451583359539088</v>
       </c>
       <c r="T8">
-        <v>0.00288592767065716</v>
+        <v>0.006451583359539089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>12.79216315101022</v>
@@ -1004,10 +1004,10 @@
         <v>115.129468359092</v>
       </c>
       <c r="S9">
-        <v>0.002844419594479318</v>
+        <v>0.1580796217235908</v>
       </c>
       <c r="T9">
-        <v>0.002844419594479318</v>
+        <v>0.1580796217235908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
         <v>1.909367974102111</v>
@@ -1066,10 +1066,10 @@
         <v>17.184311766919</v>
       </c>
       <c r="S10">
-        <v>0.0004245602260145051</v>
+        <v>0.02359508423353437</v>
       </c>
       <c r="T10">
-        <v>0.000424560226014505</v>
+        <v>0.02359508423353437</v>
       </c>
     </row>
   </sheetData>
